--- a/Assets/Excels/excel_files/DialogueLineEntity.xlsx
+++ b/Assets/Excels/excel_files/DialogueLineEntity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\sparta_team\Team12SoloProject\Assets\Excels\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FC9328-B3BC-42BE-9AA9-C31046396CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0391B29-FAA4-4B9C-9F33-1610A5B6233C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45675" yWindow="1995" windowWidth="29640" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2600" yWindow="3210" windowWidth="19760" windowHeight="10040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,62 @@
   </si>
   <si>
     <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초상화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture_ArmorT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Texture_ArmorT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraitSpriteName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum&lt;PortraitPositionType&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portraitPositionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초상화 좌,우,가운데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,23 +553,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" customWidth="1"/>
-    <col min="4" max="4" width="38.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.58203125" customWidth="1"/>
-    <col min="6" max="6" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.58203125" customWidth="1"/>
+    <col min="5" max="5" width="21.58203125" customWidth="1"/>
+    <col min="6" max="6" width="45.58203125" customWidth="1"/>
+    <col min="7" max="7" width="19.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -521,19 +580,28 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -541,19 +609,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -561,24 +638,33 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>9110001</v>
       </c>
@@ -586,21 +672,30 @@
         <v>9110000</v>
       </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>9210001</v>
       </c>
@@ -608,21 +703,30 @@
         <v>9210000</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9310001</v>
       </c>
@@ -630,21 +734,30 @@
         <v>9310000</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9410001</v>
       </c>
@@ -652,21 +765,30 @@
         <v>9410000</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>9710001</v>
       </c>
@@ -674,19 +796,28 @@
         <v>9710000</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>9710002</v>
       </c>
@@ -694,19 +825,28 @@
         <v>9710000</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>9710003</v>
       </c>
@@ -714,16 +854,25 @@
         <v>9710000</v>
       </c>
       <c r="C15">
+        <v>9711000</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>9710004</v>
       </c>
@@ -731,16 +880,25 @@
         <v>9710000</v>
       </c>
       <c r="C16">
+        <v>9711000</v>
+      </c>
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>26</v>
       </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>9710005</v>
       </c>
@@ -748,16 +906,25 @@
         <v>9710000</v>
       </c>
       <c r="C17">
+        <v>9711001</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>31</v>
       </c>
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>9710006</v>
       </c>
@@ -765,16 +932,25 @@
         <v>9710000</v>
       </c>
       <c r="C18">
+        <v>9711001</v>
+      </c>
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>27</v>
       </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>9710007</v>
       </c>
@@ -782,16 +958,25 @@
         <v>9710000</v>
       </c>
       <c r="C19">
+        <v>9711002</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>28</v>
       </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>9710008</v>
       </c>
@@ -799,16 +984,25 @@
         <v>9710000</v>
       </c>
       <c r="C20">
+        <v>9711002</v>
+      </c>
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>29</v>
       </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>9710009</v>
       </c>
@@ -816,12 +1010,21 @@
         <v>9710000</v>
       </c>
       <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>5</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>30</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" t="s">
         <v>36</v>
       </c>
     </row>
